--- a/corner.xlsx
+++ b/corner.xlsx
@@ -392,34 +392,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>91.42272837964974</v>
+        <v>64.105130699646125</v>
       </c>
       <c r="B1">
-        <v>490.27744336609209</v>
+        <v>18.097847173658966</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>433.36143759623542</v>
+        <v>697.87665601190531</v>
       </c>
       <c r="B2">
-        <v>110.5158677069322</v>
+        <v>107.16873111256919</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>475.10961257045523</v>
+        <v>674.77392266801508</v>
       </c>
       <c r="B3">
-        <v>239.003557854289</v>
+        <v>271.55322686568553</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>102.76855866407973</v>
+        <v>41.002397355755882</v>
       </c>
       <c r="B4">
-        <v>652.53037275641043</v>
+        <v>182.48234292677529</v>
       </c>
     </row>
   </sheetData>

--- a/corner.xlsx
+++ b/corner.xlsx
@@ -392,34 +392,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>64.105130699646125</v>
+        <v>51.893392159676367</v>
       </c>
       <c r="B1">
-        <v>18.097847173658966</v>
+        <v>116.30748933887983</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>697.87665601190531</v>
+        <v>295.80921972373142</v>
       </c>
       <c r="B2">
-        <v>107.16873111256919</v>
+        <v>556.34335022415814</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>674.77392266801508</v>
+        <v>434.40960640590708</v>
       </c>
       <c r="B3">
-        <v>271.55322686568553</v>
+        <v>479.51590848274805</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>41.002397355755882</v>
+        <v>170.89172939176353</v>
       </c>
       <c r="B4">
-        <v>182.48234292677529</v>
+        <v>88.834581218782333</v>
       </c>
     </row>
   </sheetData>

--- a/corner.xlsx
+++ b/corner.xlsx
@@ -392,34 +392,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>51.893392159676367</v>
+        <v>92.388332228430727</v>
       </c>
       <c r="B1">
-        <v>116.30748933887983</v>
+        <v>71.735787729463013</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>295.80921972373142</v>
+        <v>267.8831563846573</v>
       </c>
       <c r="B2">
-        <v>556.34335022415814</v>
+        <v>581.40978648704197</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>434.40960640590708</v>
+        <v>382.70795829827904</v>
       </c>
       <c r="B3">
-        <v>479.51590848274805</v>
+        <v>525.40594137530547</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>170.89172939176353</v>
+        <v>204.055032981046</v>
       </c>
       <c r="B4">
-        <v>88.834581218782333</v>
+        <v>59.999170813560141</v>
       </c>
     </row>
   </sheetData>

--- a/corner.xlsx
+++ b/corner.xlsx
@@ -392,34 +392,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>92.388332228430727</v>
+        <v>48.034591850198609</v>
       </c>
       <c r="B1">
-        <v>71.735787729463013</v>
+        <v>117.19836284872835</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>267.8831563846573</v>
+        <v>299.67708890988297</v>
       </c>
       <c r="B2">
-        <v>581.40978648704197</v>
+        <v>553.05600152345164</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>382.70795829827904</v>
+        <v>426.61348232004917</v>
       </c>
       <c r="B3">
-        <v>525.40594137530547</v>
+        <v>482.69401622865587</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>204.055032981046</v>
+        <v>179.29114576592545</v>
       </c>
       <c r="B4">
-        <v>59.999170813560141</v>
+        <v>86.89542475931232</v>
       </c>
     </row>
   </sheetData>

--- a/corner.xlsx
+++ b/corner.xlsx
@@ -392,34 +392,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>48.034591850198609</v>
+        <v>64.771879614357715</v>
       </c>
       <c r="B1">
-        <v>117.19836284872835</v>
+        <v>264.31243323614746</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>299.67708890988297</v>
+        <v>537.38492242722475</v>
       </c>
       <c r="B2">
-        <v>553.05600152345164</v>
+        <v>101.57852943047854</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>426.61348232004917</v>
+        <v>551.40024295836997</v>
       </c>
       <c r="B3">
-        <v>482.69401622865587</v>
+        <v>215.72414913702829</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>179.29114576592545</v>
+        <v>119.4358612719415</v>
       </c>
       <c r="B4">
-        <v>86.89542475931232</v>
+        <v>381.53972454870745</v>
       </c>
     </row>
   </sheetData>

--- a/corner.xlsx
+++ b/corner.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -392,34 +392,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>64.771879614357715</v>
+        <v>69.784448982353837</v>
       </c>
       <c r="B1">
-        <v>264.31243323614746</v>
+        <v>27.984472244428989</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>537.38492242722475</v>
+        <v>689.69222210691396</v>
       </c>
       <c r="B2">
-        <v>101.57852943047854</v>
+        <v>115.10693058712779</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>551.40024295836997</v>
+        <v>668.95543123392781</v>
       </c>
       <c r="B3">
-        <v>215.72414913702829</v>
+        <v>262.65687026104746</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>119.4358612719415</v>
+        <v>49.04765810936766</v>
       </c>
       <c r="B4">
-        <v>381.53972454870745</v>
+        <v>175.53441191834864</v>
       </c>
     </row>
   </sheetData>
